--- a/trunk/doc/09.进度/成都信息工程大学-216班2组_进度跟踪表.xlsx
+++ b/trunk/doc/09.进度/成都信息工程大学-216班2组_进度跟踪表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\实训流程标准化\2、文档模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\yupi\project\iss-cloud-disk_6653\trunk\doc\09.进度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFE388-F662-40F7-9DA8-819DEC2BF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F146E2C8-F249-4601-8081-5E22D8BDB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="进度跟踪" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX</t>
+    <t>蒋昌平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XXX业务WBS分解（思维导图）</t>
+    <t>23.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmony Cloud思维导图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯国栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成并提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -871,9 +887,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,26 +922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,26 +957,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,7 +1136,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1199,26 +1181,38 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="4">
